--- a/data_latih.xlsx
+++ b/data_latih.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SG2PEPF000D939C\EXCELCNV\d2f6e06b-d4f0-4f9a-920c-3ef7da1a223d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMT4\Kecerdasan_buatan\machine_learing\LearningAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{464DE62F-E6D7-486F-BCCE-DB1D9F7DFBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19A859F-FB72-4E69-96AB-BD10CCA65EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{84058B90-455F-4B88-A19B-DFFA7E73FEB9}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="8856" windowHeight="8880" xr2:uid="{84058B90-455F-4B88-A19B-DFFA7E73FEB9}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,9 +664,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -704,7 +704,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -810,7 +810,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -952,7 +952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -962,26 +962,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1736667-925C-49C9-926A-0A11F3802AEC}">
   <dimension ref="A1:P310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C260" workbookViewId="0">
-      <selection activeCell="A310" sqref="A261:P310"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>18</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>18</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>18</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>18</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>18</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>16</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>18</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>18</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>18</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>16</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>18</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>18</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>18</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>16</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>16</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>18</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>16</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>16</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>16</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>16</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>16</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>18</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>16</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>18</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>16</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>18</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>18</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>18</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>18</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>18</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>16</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>18</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>18</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>18</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>18</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>18</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>16</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>18</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>18</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>16</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>18</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>16</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>16</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>18</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>18</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>18</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>18</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>18</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>18</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>18</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>18</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>18</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>16</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>18</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>18</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>18</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>18</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>18</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>18</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>18</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>18</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>18</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>16</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>18</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>16</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>18</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>16</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>16</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>16</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>16</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>18</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>16</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>18</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>18</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>18</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>18</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>16</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>18</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>18</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>18</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>18</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>18</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>16</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>18</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>16</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>16</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>16</v>
       </c>
@@ -13981,252 +13981,252 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="P261" s="1"/>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="P262" s="1"/>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="P263" s="1"/>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="P264" s="1"/>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="P265" s="1"/>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="P266" s="1"/>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="P267" s="1"/>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="P268" s="1"/>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="P269" s="1"/>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="P270" s="1"/>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="P271" s="1"/>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="P274" s="1"/>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="P275" s="1"/>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="P276" s="1"/>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="P278" s="1"/>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="P279" s="1"/>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="P280" s="1"/>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="P281" s="1"/>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="P282" s="1"/>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="P283" s="1"/>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="P284" s="1"/>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="P285" s="1"/>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="P286" s="1"/>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="P287" s="1"/>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="P288" s="1"/>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="P289" s="1"/>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="P290" s="1"/>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="P292" s="1"/>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="P293" s="1"/>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="P294" s="1"/>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="P295" s="1"/>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="P296" s="1"/>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="P297" s="1"/>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="P299" s="1"/>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="P301" s="1"/>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="P302" s="1"/>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="P303" s="1"/>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="P304" s="1"/>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="P305" s="1"/>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="P306" s="1"/>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="P307" s="1"/>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="P308" s="1"/>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="P309" s="1"/>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="P310" s="1"/>
